--- a/data/DElist/DGE_immu_vs_pre_global_mean.xlsx
+++ b/data/DElist/DGE_immu_vs_pre_global_mean.xlsx
@@ -35,4243 +35,4243 @@
     <t xml:space="preserve">padj</t>
   </si>
   <si>
-    <t xml:space="preserve">6130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1452</t>
+    <t xml:space="preserve">ISG15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCGR1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM89A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETV7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL1RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSAD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMA6B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFI27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL18RAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEC4D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USP18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFIT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLSCR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMBIM6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCEMP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFI44L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORO2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADGRE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRRN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFI6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMKLR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFIT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFKFB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFI44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLFN13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBXO6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMOX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGLEC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFIH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLFN12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYPD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHX58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRPM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDX60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPSTI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OASL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSRNP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFIT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFSF13B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC25A33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBC1D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD163L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFI35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIRREL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF2AK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPINB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFKFB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP9A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM241A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPATC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL1RAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDHR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC18B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPATA2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGALS3BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADGRG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHBDF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMPDL3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDLRAD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTGS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLFN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANXA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARP14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL18R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBC1D24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNAAF11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC25A37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAFD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMCX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSTPIP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPR84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARP15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTX3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNJ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFDP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAF3IP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC26A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL4R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS4A6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGALS8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDX60L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACSL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNC93B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBF4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPP1R3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNDC3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFAR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRP12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRUNE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRPM6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GADD45A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBE2L6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYNLT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OGFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL2A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQP9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLA2G4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STX11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARP9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOB3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PON2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALPK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMNB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRATD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI4K2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIK3AP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAPP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKR1C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFITM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3GNT7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAS7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRAGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYSTM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFAIP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAMTSL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIBAN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDC149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EHD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARP12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTHFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMTR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOC1S6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSPAN17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPCAT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYP3A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSPH9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP5B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGLEC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANXA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDKN2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCRL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAGK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD300LF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKRD22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYP3A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBE2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKNK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPYD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFSD14B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHSL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGEF10L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TICAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPINA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALOX5AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDRD7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARL11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSF2RB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNAH17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGAP26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRNB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHRS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNX10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIBAN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRPAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST3GAL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5AR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHROOM4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFLAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKFY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUT7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CST7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD300A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOCOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHF11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYD88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKRD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGALS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKMY2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLHL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHACTR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNIH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACSL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LITAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD2L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2RY13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFHC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYCARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYCC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP140L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF19B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRSS55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNJ15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL1R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCHF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFSF10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPINA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADGRE5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHF21A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERTAD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPZL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHMP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4GALT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPS9D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBXL5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZU1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBTD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC2D2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKAP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSF3R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3AR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC39A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLZF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTK2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSH2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCLT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGAP18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALNT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPAS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP8B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSME2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAZ2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSDMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFKFB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMXL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCN1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STK38L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRPB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPR141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STING1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAGLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFSF13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP6V0D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARID5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYTH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEC4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSMB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERO1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALOX5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21orf91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTPBP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEFV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC43A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETV6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCARF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNFX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G0S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTPD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC8A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFNGR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP1AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19orf38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATOX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRAK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DGAT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNQ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP11A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPHK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRELD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEAP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLRP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCOA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP3K8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GK3P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFRSF8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZFP36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC7A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIPA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2HGDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCNT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACNA1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL16A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZMPSTE24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCER1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDK14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFRSF1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCM2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM255A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM217B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUDT22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPARP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANXA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH3GLB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSMB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPNMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4orf33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZCCHC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGFBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM111B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLFM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRNB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPAG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMD4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACSS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EHD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PON3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEC24D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAMBPL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCL10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEKHG6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREML2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPATS2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATXN7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYO7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZFYVE16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDR13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPS8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBX19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFNGR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPINB10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAMP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP3K20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTC39B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USP25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRPK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSIG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4GALT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAV1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FYB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEF2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APMAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP8A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHSY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYRIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL15RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARPC1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONRF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERTAD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBEAL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPRJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N4BP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFIL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEC7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHTN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNPEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGAP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHRS7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPOR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GADD45B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LILRB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFRSF21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBOAT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXER1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITPRID2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH3BP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRDX5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABHD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACSL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAV3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDFY3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SESTD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNIP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL10RB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICALM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAM15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLVRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFI27L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZDHHC14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBMS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRKAB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PELI3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGFBP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSPAN14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATXN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCEL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP3K5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RASGRP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC3H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDC134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC20A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGEF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEST1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT5C3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1orf162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRIPAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCPIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDCBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STIMATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDUFB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM20C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYSMD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOCK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMDHD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4GALT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOOK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL13RA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGS19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SASH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLVCR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFSF14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMTOR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRKCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FKBP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANXA11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMHD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRSS16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZC3HAV1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEAP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XRN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBC1D15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCIMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMM40L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRELID1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSPH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIMAP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRAK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5AR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACAA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC42EP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGEF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRPL17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDAC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOXHD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYAL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEX261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PXN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BST1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOSPD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST8SIA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNRNPH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLA2G4C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSMCE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTSZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDE8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCMT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGSF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPK13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBM43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPEB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3GLCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC26A11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRSF11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM6SF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC11A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPEG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTCH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM53C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATOSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRRK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGMS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYREN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TADA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARL8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB3IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP13A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNASEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAM9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFRSF1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STX12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCARB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NINJ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICU2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLCO4C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANXA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAZ1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPHD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CETP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYRIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFI30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPB41L3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTCH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDUFB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYFIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHMP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBE2D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3MBTL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCTP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPZA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAMD1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCND3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QPCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLRP12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFI16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NABP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRRC40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZI2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPHA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XRCC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARAP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP3S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUSD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCIRG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP6V0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAPBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DACH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20orf27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBC1D8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF4E3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RALB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRAK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KBTBD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSDC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCNJL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP2B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRDC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFSD14A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTCH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSOX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNIP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANXA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQCRC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXOSC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC26A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBXO11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRRFIP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSMC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZBTB7B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPNT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLCN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARGE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC2A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFNAR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBE2D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHURC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RWDD2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PER3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC16A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKAP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPR153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZBTB20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTC38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDR89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCER2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBX21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL11A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIVEP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC2N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EHMT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAT6B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDZD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL11A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POU2AF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCAPD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCND2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHKA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYO6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPAG5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USP20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF33A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNKS1BP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF21B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC16A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC42BPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USP11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEP43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAUS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIAS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORBS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPTBN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALNT12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFRP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD79A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNIP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT5DC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPIN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAST4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIP1R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGIRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRKAR1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLLT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRKCQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITPR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDR62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDC141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLCD3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLRC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDAC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SESN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRK5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPHN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS4A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSOX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSBPL7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDE4D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLPH3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUNX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM118A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NECTIN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC22A23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPTIN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENND5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BICD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFATC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL27RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNMBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1PR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JCHAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2RY10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYP2R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC7A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCF2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC4A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABI2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCAT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZBTB25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCRL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZSCAN26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLRC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGS9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARD11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLAMF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDE3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RASGRP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STMN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTC28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC39A14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLR1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLRG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEC17A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNQ5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INPP4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFMBT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADGRG5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2BC17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC12A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSBPL10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFCC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDLRAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAX5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBX5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP53I13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANKH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRKCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPR171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRDM8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAA40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABTB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPER1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPH5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKAP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYHIN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEMIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCALD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPAR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPTIN11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPR174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPR183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HJURP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRSS57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLXNA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGFG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC25B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DERL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLGL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCM6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBASH3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTKN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPD52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEC2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST8SIA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RALGDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFRSF25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABLIM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFATC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETREG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAP70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRAG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCED1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRIG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP8B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APBA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL2RB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STK39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOCK9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLCG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TET1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH2D2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZDBF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADARB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAL3ST4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIP2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAM23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCNX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYTL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD3E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFAP92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLXNA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCHF9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCRL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLHL14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR3C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLHL25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BICDL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDGFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCKAP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IKZF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTBP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHACTR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNX25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGED1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIAA1671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRRN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH2D1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RASGRF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIK3R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAIAP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMNL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRAS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLRK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCAN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPOCK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTCH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAMTS10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGLV6-57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM184A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLRB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIAA1549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMILIN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSD1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRRG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASRGL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEC2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHRS9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUCNR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLA2G15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB39A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLKL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTYH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFOD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11orf91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENND1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSGALNACT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNAJB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIPK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SASH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGAP31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGEF40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC46A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPTLC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL9A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLRC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEDD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZFP36L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMJD1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STYX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAGLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDX3X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHFPL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTHFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC25A28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRDM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLOD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQGAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC2D2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSGIN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNPEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRWD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBCK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPNB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKAP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNK5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MED17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSPA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRISP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF4G3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMK2G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNDP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCGF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19orf12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRKCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECPAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOR1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORF4L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARP8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USP35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENND5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOR1AIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENND3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RLIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RASGEF1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUCB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPHS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELPLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFR3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC12A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALNT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCA13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNAJA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM151B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIPA1L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRYBG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RASSF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBNL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCM7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DVL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL1RL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12orf29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATZ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COQ8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEP78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFFO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRRC75A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYROXD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC25A53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDR59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAFAH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLA-DOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLAMF9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTTG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLAMF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC25A17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAF4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPINF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLF12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDH5A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZC3H12D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLRF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILVBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAMD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ING5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARNS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPST1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFT140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLMN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABHD15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSPOAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPF40B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRPL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCKSL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARVCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITM2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSPAN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGAP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC23A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGT7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDR76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLA-DOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBC1D19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIP13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APBB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD79B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPNS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRY2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBXO32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLRD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP2K6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGFBR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC25A29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMD9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGPTL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKX3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAAT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERAP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDCD1LG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNPT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS6KC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPY19L4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAQR8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1GALT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPM1K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENT5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUEDC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DGLUCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMA6D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTX4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARP11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLDLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNTB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMBR1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17orf67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDH3A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDK17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPR137C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVB12B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMPR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM76A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPHB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM50A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM86A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTPBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAGAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS6KA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEXD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF144A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC66A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHLRC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDKN1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM8A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLGA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNRF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPNE8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAT2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCMH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSPA12B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASP12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSGIN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITPK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSMA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USPL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC2A13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYSLTR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD2L1BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHOSPHO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKTL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC25A16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASDURF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YPEL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS4A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3GALNT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCL8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC28A3</t>
   </si>
 </sst>
 </file>
